--- a/importPresentatie.xlsx
+++ b/importPresentatie.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\Arktos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kaart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="481">
   <si>
     <t>Locatie_naam</t>
   </si>
@@ -1462,6 +1462,9 @@
   </si>
   <si>
     <t>Project_nr</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1819,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,6 +1897,9 @@
       <c r="H2">
         <v>17</v>
       </c>
+      <c r="I2" t="s">
+        <v>480</v>
+      </c>
       <c r="J2" s="2" t="s">
         <v>225</v>
       </c>
@@ -1929,6 +1935,9 @@
       <c r="H3">
         <v>3</v>
       </c>
+      <c r="I3" t="s">
+        <v>480</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>226</v>
       </c>
@@ -1964,6 +1973,9 @@
       <c r="H4">
         <v>2</v>
       </c>
+      <c r="I4" t="s">
+        <v>480</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>227</v>
       </c>
@@ -1999,6 +2011,9 @@
       <c r="H5">
         <v>21</v>
       </c>
+      <c r="I5" t="s">
+        <v>480</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>228</v>
       </c>
@@ -2031,6 +2046,9 @@
       <c r="H6">
         <v>23</v>
       </c>
+      <c r="I6" t="s">
+        <v>480</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>229</v>
       </c>
@@ -2063,6 +2081,9 @@
       <c r="H7">
         <v>53</v>
       </c>
+      <c r="I7" t="s">
+        <v>480</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>230</v>
       </c>
@@ -2095,6 +2116,9 @@
       <c r="H8">
         <v>76</v>
       </c>
+      <c r="I8" t="s">
+        <v>480</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>231</v>
       </c>
@@ -2127,6 +2151,9 @@
       <c r="H9">
         <v>89</v>
       </c>
+      <c r="I9" t="s">
+        <v>480</v>
+      </c>
       <c r="J9" s="2" t="s">
         <v>232</v>
       </c>
@@ -2159,6 +2186,9 @@
       <c r="H10">
         <v>96</v>
       </c>
+      <c r="I10" t="s">
+        <v>480</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>233</v>
       </c>
@@ -2194,6 +2224,9 @@
       <c r="H11">
         <v>35</v>
       </c>
+      <c r="I11" t="s">
+        <v>480</v>
+      </c>
       <c r="J11" s="2" t="s">
         <v>234</v>
       </c>
@@ -2226,6 +2259,9 @@
       <c r="H12">
         <v>6</v>
       </c>
+      <c r="I12" t="s">
+        <v>480</v>
+      </c>
       <c r="J12" s="2" t="s">
         <v>235</v>
       </c>
@@ -2258,6 +2294,9 @@
       <c r="H13">
         <v>6</v>
       </c>
+      <c r="I13" t="s">
+        <v>480</v>
+      </c>
       <c r="J13" s="2" t="s">
         <v>236</v>
       </c>
@@ -2290,6 +2329,9 @@
       <c r="H14">
         <v>4</v>
       </c>
+      <c r="I14" t="s">
+        <v>480</v>
+      </c>
       <c r="J14" s="2" t="s">
         <v>237</v>
       </c>
@@ -2322,6 +2364,9 @@
       <c r="H15">
         <v>5</v>
       </c>
+      <c r="I15" t="s">
+        <v>480</v>
+      </c>
       <c r="J15" s="2" t="s">
         <v>238</v>
       </c>
@@ -2357,6 +2402,9 @@
       <c r="H16">
         <v>7</v>
       </c>
+      <c r="I16" t="s">
+        <v>480</v>
+      </c>
       <c r="J16" s="2" t="s">
         <v>240</v>
       </c>
@@ -2392,6 +2440,9 @@
       <c r="H17">
         <v>8</v>
       </c>
+      <c r="I17" t="s">
+        <v>480</v>
+      </c>
       <c r="J17" s="2" t="s">
         <v>239</v>
       </c>
@@ -2424,6 +2475,9 @@
       <c r="H18">
         <v>90</v>
       </c>
+      <c r="I18" t="s">
+        <v>480</v>
+      </c>
       <c r="J18" s="2" t="s">
         <v>241</v>
       </c>
@@ -2456,6 +2510,9 @@
       <c r="H19">
         <v>32</v>
       </c>
+      <c r="I19" t="s">
+        <v>480</v>
+      </c>
       <c r="J19" s="2" t="s">
         <v>242</v>
       </c>
@@ -2491,6 +2548,9 @@
       <c r="H20">
         <v>65</v>
       </c>
+      <c r="I20" t="s">
+        <v>480</v>
+      </c>
       <c r="J20" s="2" t="s">
         <v>244</v>
       </c>
@@ -2523,6 +2583,9 @@
       <c r="H21">
         <v>35</v>
       </c>
+      <c r="I21" t="s">
+        <v>480</v>
+      </c>
       <c r="J21" s="2" t="s">
         <v>243</v>
       </c>
@@ -2555,6 +2618,9 @@
       <c r="H22">
         <v>75</v>
       </c>
+      <c r="I22" t="s">
+        <v>480</v>
+      </c>
       <c r="J22" s="2" t="s">
         <v>245</v>
       </c>
@@ -2590,6 +2656,9 @@
       <c r="H23">
         <v>78</v>
       </c>
+      <c r="I23" t="s">
+        <v>480</v>
+      </c>
       <c r="J23" s="2" t="s">
         <v>246</v>
       </c>
@@ -2625,6 +2694,9 @@
       <c r="H24">
         <v>90</v>
       </c>
+      <c r="I24" t="s">
+        <v>480</v>
+      </c>
       <c r="J24" s="2" t="s">
         <v>247</v>
       </c>
@@ -2657,6 +2729,9 @@
       <c r="H25">
         <v>78</v>
       </c>
+      <c r="I25" t="s">
+        <v>480</v>
+      </c>
       <c r="J25" s="2" t="s">
         <v>248</v>
       </c>
@@ -2689,6 +2764,9 @@
       <c r="H26">
         <v>76</v>
       </c>
+      <c r="I26" t="s">
+        <v>480</v>
+      </c>
       <c r="J26" s="2" t="s">
         <v>249</v>
       </c>
@@ -2721,6 +2799,9 @@
       <c r="H27">
         <v>45</v>
       </c>
+      <c r="I27" t="s">
+        <v>480</v>
+      </c>
       <c r="J27" s="2" t="s">
         <v>250</v>
       </c>
@@ -2753,6 +2834,9 @@
       <c r="H28">
         <v>65</v>
       </c>
+      <c r="I28" t="s">
+        <v>480</v>
+      </c>
       <c r="J28" s="2" t="s">
         <v>251</v>
       </c>
@@ -2784,6 +2868,9 @@
       </c>
       <c r="H29">
         <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>480</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>252</v>
@@ -5449,7 +5536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>

--- a/importPresentatie.xlsx
+++ b/importPresentatie.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kaart\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20010" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="5" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="476">
   <si>
     <t>Locatie_naam</t>
   </si>
@@ -1447,21 +1442,6 @@
   </si>
   <si>
     <t>1234AB</t>
-  </si>
-  <si>
-    <t>P0001</t>
-  </si>
-  <si>
-    <t>P0002</t>
-  </si>
-  <si>
-    <t>P0003</t>
-  </si>
-  <si>
-    <t>P0004</t>
-  </si>
-  <si>
-    <t>Project_nr</t>
   </si>
   <si>
     <t>-</t>
@@ -1470,8 +1450,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1518,7 +1498,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1526,17 +1506,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1574,9 +1551,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1608,10 +1585,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1643,10 +1619,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1819,14 +1794,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
@@ -1834,7 +1809,7 @@
     <col min="10" max="10" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1872,7 +1847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1898,7 +1873,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>225</v>
@@ -1910,7 +1885,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1936,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>226</v>
@@ -1948,7 +1923,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>253</v>
       </c>
@@ -1974,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>227</v>
@@ -1986,7 +1961,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -2012,7 +1987,7 @@
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>228</v>
@@ -2024,10 +1999,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>255</v>
       </c>
+      <c r="B6" t="s">
+        <v>475</v>
+      </c>
       <c r="C6" t="s">
         <v>135</v>
       </c>
@@ -2047,7 +2025,7 @@
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>229</v>
@@ -2059,10 +2037,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>256</v>
       </c>
+      <c r="B7" t="s">
+        <v>475</v>
+      </c>
       <c r="C7" t="s">
         <v>136</v>
       </c>
@@ -2082,7 +2063,7 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>230</v>
@@ -2094,10 +2075,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>257</v>
       </c>
+      <c r="B8" t="s">
+        <v>475</v>
+      </c>
       <c r="C8" t="s">
         <v>137</v>
       </c>
@@ -2117,7 +2101,7 @@
         <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>231</v>
@@ -2129,10 +2113,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>259</v>
       </c>
+      <c r="B9" t="s">
+        <v>475</v>
+      </c>
       <c r="C9" t="s">
         <v>138</v>
       </c>
@@ -2152,7 +2139,7 @@
         <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>232</v>
@@ -2164,10 +2151,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>258</v>
       </c>
+      <c r="B10" t="s">
+        <v>475</v>
+      </c>
       <c r="C10" t="s">
         <v>139</v>
       </c>
@@ -2187,7 +2177,7 @@
         <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>233</v>
@@ -2199,7 +2189,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -2225,7 +2215,7 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>234</v>
@@ -2237,10 +2227,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>261</v>
       </c>
+      <c r="B12" t="s">
+        <v>475</v>
+      </c>
       <c r="C12" t="s">
         <v>140</v>
       </c>
@@ -2260,7 +2253,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>235</v>
@@ -2272,10 +2265,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>262</v>
       </c>
+      <c r="B13" t="s">
+        <v>475</v>
+      </c>
       <c r="C13" t="s">
         <v>141</v>
       </c>
@@ -2295,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>236</v>
@@ -2307,10 +2303,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>263</v>
       </c>
+      <c r="B14" t="s">
+        <v>475</v>
+      </c>
       <c r="C14" t="s">
         <v>142</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>237</v>
@@ -2342,10 +2341,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>264</v>
       </c>
+      <c r="B15" t="s">
+        <v>475</v>
+      </c>
       <c r="C15" t="s">
         <v>143</v>
       </c>
@@ -2365,7 +2367,7 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>238</v>
@@ -2377,7 +2379,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>265</v>
       </c>
@@ -2403,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>240</v>
@@ -2415,7 +2417,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>266</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>239</v>
@@ -2453,10 +2455,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>267</v>
       </c>
+      <c r="B18" t="s">
+        <v>475</v>
+      </c>
       <c r="C18" t="s">
         <v>146</v>
       </c>
@@ -2476,7 +2481,7 @@
         <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>241</v>
@@ -2488,10 +2493,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>268</v>
       </c>
+      <c r="B19" t="s">
+        <v>475</v>
+      </c>
       <c r="C19" t="s">
         <v>147</v>
       </c>
@@ -2511,7 +2519,7 @@
         <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>242</v>
@@ -2523,7 +2531,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -2549,7 +2557,7 @@
         <v>65</v>
       </c>
       <c r="I20" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>244</v>
@@ -2561,10 +2569,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>270</v>
       </c>
+      <c r="B21" t="s">
+        <v>475</v>
+      </c>
       <c r="C21" t="s">
         <v>149</v>
       </c>
@@ -2584,7 +2595,7 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>243</v>
@@ -2596,10 +2607,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>271</v>
       </c>
+      <c r="B22" t="s">
+        <v>475</v>
+      </c>
       <c r="C22" t="s">
         <v>150</v>
       </c>
@@ -2619,7 +2633,7 @@
         <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>245</v>
@@ -2631,7 +2645,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>272</v>
       </c>
@@ -2657,7 +2671,7 @@
         <v>78</v>
       </c>
       <c r="I23" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>246</v>
@@ -2669,7 +2683,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>273</v>
       </c>
@@ -2695,7 +2709,7 @@
         <v>90</v>
       </c>
       <c r="I24" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>247</v>
@@ -2707,10 +2721,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>274</v>
       </c>
+      <c r="B25" t="s">
+        <v>475</v>
+      </c>
       <c r="C25" t="s">
         <v>153</v>
       </c>
@@ -2730,7 +2747,7 @@
         <v>78</v>
       </c>
       <c r="I25" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>248</v>
@@ -2742,10 +2759,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>275</v>
       </c>
+      <c r="B26" t="s">
+        <v>475</v>
+      </c>
       <c r="C26" t="s">
         <v>154</v>
       </c>
@@ -2765,7 +2785,7 @@
         <v>76</v>
       </c>
       <c r="I26" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>249</v>
@@ -2777,10 +2797,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>276</v>
       </c>
+      <c r="B27" t="s">
+        <v>475</v>
+      </c>
       <c r="C27" t="s">
         <v>155</v>
       </c>
@@ -2800,7 +2823,7 @@
         <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>250</v>
@@ -2812,10 +2835,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>277</v>
       </c>
+      <c r="B28" t="s">
+        <v>475</v>
+      </c>
       <c r="C28" t="s">
         <v>156</v>
       </c>
@@ -2835,7 +2861,7 @@
         <v>65</v>
       </c>
       <c r="I28" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>251</v>
@@ -2847,10 +2873,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>278</v>
       </c>
+      <c r="B29" t="s">
+        <v>475</v>
+      </c>
       <c r="C29" t="s">
         <v>157</v>
       </c>
@@ -2870,7 +2899,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>252</v>
@@ -2914,18 +2943,19 @@
     <hyperlink ref="J29" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="C41" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="90.85546875" customWidth="1"/>
@@ -2941,7 +2971,7 @@
     <col min="12" max="12" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2979,7 +3009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3017,7 +3047,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -3055,7 +3085,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -3093,7 +3123,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3131,7 +3161,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -3169,7 +3199,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -3207,7 +3237,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -3245,7 +3275,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -3283,7 +3313,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -3321,7 +3351,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -3359,7 +3389,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -3397,7 +3427,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -3435,7 +3465,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -3473,7 +3503,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -3511,7 +3541,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -3549,7 +3579,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -3587,7 +3617,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -3625,7 +3655,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -3663,7 +3693,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -3701,7 +3731,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -3739,7 +3769,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -3777,7 +3807,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -3815,7 +3845,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -3853,7 +3883,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>283</v>
       </c>
@@ -3891,7 +3921,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>284</v>
       </c>
@@ -3929,7 +3959,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>285</v>
       </c>
@@ -3967,7 +3997,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>286</v>
       </c>
@@ -4005,7 +4035,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>287</v>
       </c>
@@ -4043,7 +4073,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>288</v>
       </c>
@@ -4081,7 +4111,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>289</v>
       </c>
@@ -4119,7 +4149,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -4157,7 +4187,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -4195,7 +4225,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>292</v>
       </c>
@@ -4233,7 +4263,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>293</v>
       </c>
@@ -4271,7 +4301,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>295</v>
       </c>
@@ -4309,7 +4339,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -4347,7 +4377,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -4385,7 +4415,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>297</v>
       </c>
@@ -4423,7 +4453,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>298</v>
       </c>
@@ -4461,7 +4491,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>299</v>
       </c>
@@ -4499,7 +4529,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>300</v>
       </c>
@@ -4537,7 +4567,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>301</v>
       </c>
@@ -4575,7 +4605,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>302</v>
       </c>
@@ -4613,7 +4643,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>303</v>
       </c>
@@ -4651,7 +4681,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -4689,7 +4719,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>304</v>
       </c>
@@ -4727,7 +4757,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>305</v>
       </c>
@@ -4765,7 +4795,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>306</v>
       </c>
@@ -4803,7 +4833,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>307</v>
       </c>
@@ -4841,7 +4871,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>308</v>
       </c>
@@ -4879,7 +4909,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>309</v>
       </c>
@@ -4917,7 +4947,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>129</v>
       </c>
@@ -4955,7 +4985,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -4993,7 +5023,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>311</v>
       </c>
@@ -5031,7 +5061,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>312</v>
       </c>
@@ -5069,7 +5099,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>313</v>
       </c>
@@ -5107,7 +5137,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>314</v>
       </c>
@@ -5145,7 +5175,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>315</v>
       </c>
@@ -5183,7 +5213,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>316</v>
       </c>
@@ -5221,7 +5251,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -5259,7 +5289,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>318</v>
       </c>
@@ -5297,7 +5327,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>319</v>
       </c>
@@ -5335,7 +5365,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="J64" s="2"/>
     </row>
   </sheetData>
@@ -5409,14 +5439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -5426,12 +5456,12 @@
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -5446,12 +5476,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>128</v>
@@ -5466,12 +5496,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>476</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -5486,12 +5516,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>129</v>
@@ -5506,12 +5536,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>478</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
         <v>121</v>
@@ -5528,19 +5558,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -5550,7 +5579,7 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -5573,9 +5602,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>475</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -5596,9 +5625,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5619,9 +5648,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>253</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5642,9 +5671,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>254</v>
       </c>
       <c r="B5">
         <v>5</v>

--- a/importPresentatie.xlsx
+++ b/importPresentatie.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kaart\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20010" windowHeight="8025"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20010" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="5" r:id="rId1"/>
@@ -1450,8 +1455,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,7 +1503,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1506,14 +1511,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1551,9 +1559,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1585,9 +1593,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1619,9 +1628,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1794,14 +1804,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
@@ -1809,7 +1819,7 @@
     <col min="10" max="10" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1847,7 +1857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1885,7 +1895,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1923,7 +1933,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>253</v>
       </c>
@@ -1961,7 +1971,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -1999,7 +2009,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>255</v>
       </c>
@@ -2037,7 +2047,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>256</v>
       </c>
@@ -2075,7 +2085,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -2113,7 +2123,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -2151,7 +2161,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>258</v>
       </c>
@@ -2189,7 +2199,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -2227,7 +2237,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -2265,7 +2275,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -2303,7 +2313,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -2341,7 +2351,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>264</v>
       </c>
@@ -2379,7 +2389,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>265</v>
       </c>
@@ -2417,7 +2427,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>266</v>
       </c>
@@ -2455,7 +2465,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -2493,7 +2503,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -2531,7 +2541,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -2569,7 +2579,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -2607,7 +2617,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>271</v>
       </c>
@@ -2645,7 +2655,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>272</v>
       </c>
@@ -2683,7 +2693,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>273</v>
       </c>
@@ -2721,7 +2731,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>274</v>
       </c>
@@ -2759,7 +2769,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>275</v>
       </c>
@@ -2797,7 +2807,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>276</v>
       </c>
@@ -2835,7 +2845,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>277</v>
       </c>
@@ -2873,7 +2883,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>278</v>
       </c>
@@ -2948,14 +2958,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="90.85546875" customWidth="1"/>
@@ -2971,7 +2981,7 @@
     <col min="12" max="12" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +3019,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3047,7 +3057,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -3085,7 +3095,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -3123,7 +3133,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3161,7 +3171,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -3199,7 +3209,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -3237,7 +3247,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -3275,7 +3285,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -3351,7 +3361,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -3389,7 +3399,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -3427,7 +3437,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -3465,7 +3475,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -3503,7 +3513,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -3541,7 +3551,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -3579,7 +3589,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -3617,7 +3627,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -3655,7 +3665,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -3693,7 +3703,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -3731,7 +3741,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -3769,7 +3779,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -3807,7 +3817,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -3845,7 +3855,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -3883,7 +3893,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>283</v>
       </c>
@@ -3921,7 +3931,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>284</v>
       </c>
@@ -3959,7 +3969,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>285</v>
       </c>
@@ -3997,7 +4007,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>286</v>
       </c>
@@ -4035,7 +4045,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>287</v>
       </c>
@@ -4073,7 +4083,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>288</v>
       </c>
@@ -4111,7 +4121,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>289</v>
       </c>
@@ -4149,7 +4159,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -4187,7 +4197,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -4225,7 +4235,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>292</v>
       </c>
@@ -4263,7 +4273,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>293</v>
       </c>
@@ -4301,7 +4311,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>295</v>
       </c>
@@ -4339,7 +4349,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -4377,7 +4387,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -4415,7 +4425,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>297</v>
       </c>
@@ -4453,7 +4463,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>298</v>
       </c>
@@ -4491,7 +4501,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>299</v>
       </c>
@@ -4529,7 +4539,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>300</v>
       </c>
@@ -4567,7 +4577,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>301</v>
       </c>
@@ -4605,7 +4615,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>302</v>
       </c>
@@ -4643,7 +4653,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>303</v>
       </c>
@@ -4681,7 +4691,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -4719,7 +4729,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>304</v>
       </c>
@@ -4757,7 +4767,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>305</v>
       </c>
@@ -4795,7 +4805,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>306</v>
       </c>
@@ -4833,7 +4843,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>307</v>
       </c>
@@ -4871,7 +4881,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>308</v>
       </c>
@@ -4909,7 +4919,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>309</v>
       </c>
@@ -4947,7 +4957,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>129</v>
       </c>
@@ -4985,7 +4995,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -5023,7 +5033,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>311</v>
       </c>
@@ -5061,7 +5071,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>312</v>
       </c>
@@ -5099,7 +5109,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>313</v>
       </c>
@@ -5137,7 +5147,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>314</v>
       </c>
@@ -5175,7 +5185,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>315</v>
       </c>
@@ -5213,7 +5223,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>316</v>
       </c>
@@ -5251,7 +5261,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -5289,7 +5299,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>318</v>
       </c>
@@ -5327,7 +5337,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>319</v>
       </c>
@@ -5365,7 +5375,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J64" s="2"/>
     </row>
   </sheetData>
@@ -5439,14 +5449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -5456,7 +5466,7 @@
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5476,7 +5486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5496,7 +5506,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -5516,7 +5526,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>253</v>
       </c>
@@ -5536,7 +5546,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -5562,14 +5572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -5579,7 +5589,7 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -5602,9 +5612,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -5625,9 +5635,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5648,9 +5658,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5671,9 +5681,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>5</v>

--- a/importPresentatie.xlsx
+++ b/importPresentatie.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kaart\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20010" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20010" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="5" r:id="rId1"/>
@@ -1561,7 +1556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1596,7 +1591,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1807,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,7 +1895,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
@@ -1938,7 +1933,7 @@
         <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -1976,7 +1971,7 @@
         <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
         <v>134</v>
@@ -2204,7 +2199,7 @@
         <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>475</v>
       </c>
       <c r="C11" t="s">
         <v>135</v>
@@ -2394,7 +2389,7 @@
         <v>265</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>475</v>
       </c>
       <c r="C16" t="s">
         <v>144</v>
@@ -2432,7 +2427,7 @@
         <v>266</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>475</v>
       </c>
       <c r="C17" t="s">
         <v>145</v>
@@ -2546,7 +2541,7 @@
         <v>269</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>475</v>
       </c>
       <c r="C20" t="s">
         <v>148</v>
@@ -2660,7 +2655,7 @@
         <v>272</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>475</v>
       </c>
       <c r="C23" t="s">
         <v>151</v>
@@ -2698,7 +2693,7 @@
         <v>273</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>475</v>
       </c>
       <c r="C24" t="s">
         <v>152</v>
@@ -2961,7 +2956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
